--- a/TDD/Bilder/data_size.xlsx
+++ b/TDD/Bilder/data_size.xlsx
@@ -11,11 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>data_size</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +77,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="27"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -89,21 +103,20 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12576618547681548"/>
-          <c:y val="0.19480351414406533"/>
-          <c:w val="0.70170734908136456"/>
-          <c:h val="0.6052863980237766"/>
+          <c:x val="0.11801618547681543"/>
+          <c:y val="0.19461714084681958"/>
+          <c:w val="0.65269203849518842"/>
+          <c:h val="0.63013001183250084"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]data_size!$B$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -114,7 +127,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]data_size!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -141,7 +154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]data_size!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -172,18 +185,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]data_size!$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>map</c:v>
+                  <c:v>mapping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]data_size!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -210,7 +223,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]data_size!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -241,7 +254,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]data_size!$D$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +265,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]data_size!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -279,7 +292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]data_size!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -305,12 +318,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="121927936"/>
-        <c:axId val="121950976"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="161326976"/>
+        <c:axId val="161812864"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="121927936"/>
+        <c:axId val="161326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +339,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>data size in megabyte</a:t>
+                  <a:t>data size </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>in megabyte</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -335,21 +357,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35384091632897374"/>
-              <c:y val="0.90846477007711468"/>
+              <c:x val="0.778806649168854"/>
+              <c:y val="0.81866883820430081"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121950976"/>
+        <c:crossAx val="161812864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121950976"/>
+        <c:axId val="161812864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,7 +388,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>runtime in ms</a:t>
+                  <a:t>runtime in s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -375,14 +397,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.6499302649930271E-3"/>
-              <c:y val="8.0111812648805902E-2"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="8.6002140702964899E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121927936"/>
+        <c:crossAx val="161326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -395,7 +417,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -406,19 +428,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321879</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -434,115 +456,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data_size"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>upload</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>map</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>job</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1000</v>
-          </cell>
-          <cell r="B2">
-            <v>25.253</v>
-          </cell>
-          <cell r="C2">
-            <v>66.275000000000006</v>
-          </cell>
-          <cell r="D2">
-            <v>80.638000000000005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2000</v>
-          </cell>
-          <cell r="B3">
-            <v>50.125999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>134.22</v>
-          </cell>
-          <cell r="D3">
-            <v>157.28399999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>4000</v>
-          </cell>
-          <cell r="B4">
-            <v>97.973333330000003</v>
-          </cell>
-          <cell r="C4">
-            <v>213.7944444</v>
-          </cell>
-          <cell r="D4">
-            <v>260.37666669999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>6000</v>
-          </cell>
-          <cell r="B5">
-            <v>146.28800000000001</v>
-          </cell>
-          <cell r="C5">
-            <v>305.50400000000002</v>
-          </cell>
-          <cell r="D5">
-            <v>381.654</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>8000</v>
-          </cell>
-          <cell r="B6">
-            <v>194.30600000000001</v>
-          </cell>
-          <cell r="C6">
-            <v>387.245</v>
-          </cell>
-          <cell r="D6">
-            <v>469.05900000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>10000</v>
-          </cell>
-          <cell r="B7">
-            <v>244.43700000000001</v>
-          </cell>
-          <cell r="C7">
-            <v>491.71300000000002</v>
-          </cell>
-          <cell r="D7">
-            <v>585.04899999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,14 +743,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>25.253</v>
+      </c>
+      <c r="C2">
+        <v>66.275000000000006</v>
+      </c>
+      <c r="D2">
+        <v>80.638000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>50.125999999999998</v>
+      </c>
+      <c r="C3">
+        <v>134.22</v>
+      </c>
+      <c r="D3">
+        <v>157.28399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4000</v>
+      </c>
+      <c r="B4">
+        <v>97.973333330000003</v>
+      </c>
+      <c r="C4">
+        <v>213.7944444</v>
+      </c>
+      <c r="D4">
+        <v>260.37666669999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6000</v>
+      </c>
+      <c r="B5">
+        <v>146.28800000000001</v>
+      </c>
+      <c r="C5">
+        <v>305.50400000000002</v>
+      </c>
+      <c r="D5">
+        <v>381.654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>194.30600000000001</v>
+      </c>
+      <c r="C6">
+        <v>387.245</v>
+      </c>
+      <c r="D6">
+        <v>469.05900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>244.43700000000001</v>
+      </c>
+      <c r="C7">
+        <v>491.71300000000002</v>
+      </c>
+      <c r="D7">
+        <v>585.04899999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
